--- a/raw_data/20200818_saline/20200818_Sensor1_Test_59.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_59.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28280F9-BE7A-45EE-B88D-6820B9650144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>52387.461087</v>
+        <v>52387.461087000003</v>
       </c>
       <c r="B2" s="1">
         <v>14.552073</v>
       </c>
       <c r="C2" s="1">
-        <v>897.218000</v>
+        <v>897.21799999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.128000</v>
+        <v>-198.12799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>52398.156358</v>
@@ -496,88 +912,88 @@
         <v>14.555043</v>
       </c>
       <c r="H2" s="1">
-        <v>915.550000</v>
+        <v>915.55</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.900000</v>
+        <v>-168.9</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>52408.554948</v>
+        <v>52408.554947999997</v>
       </c>
       <c r="L2" s="1">
-        <v>14.557932</v>
+        <v>14.557931999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.276000</v>
+        <v>939.27599999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.132000</v>
+        <v>-120.13200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>52419.019047</v>
+        <v>52419.019047000002</v>
       </c>
       <c r="Q2" s="1">
         <v>14.560839</v>
       </c>
       <c r="R2" s="1">
-        <v>946.379000</v>
+        <v>946.37900000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.994000</v>
+        <v>-103.994</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>52429.573912</v>
       </c>
       <c r="V2" s="1">
-        <v>14.563771</v>
+        <v>14.563770999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>953.177000</v>
+        <v>953.17700000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.024200</v>
+        <v>-89.024199999999993</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>52440.343050</v>
+        <v>52440.343050000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>14.566762</v>
+        <v>14.566762000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.473000</v>
+        <v>960.47299999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.280100</v>
+        <v>-77.280100000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>52451.232252</v>
+        <v>52451.232252000002</v>
       </c>
       <c r="AF2" s="1">
         <v>14.569787</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.354000</v>
+        <v>965.35400000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.155400</v>
+        <v>-75.1554</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>52461.691885</v>
@@ -586,225 +1002,225 @@
         <v>14.572692</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.610000</v>
+        <v>972.61</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.931500</v>
+        <v>-79.9315</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>52471.695201</v>
+        <v>52471.695201000002</v>
       </c>
       <c r="AP2" s="1">
         <v>14.575471</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.773000</v>
+        <v>980.77300000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.597100</v>
+        <v>-91.597099999999998</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>52482.339810</v>
+        <v>52482.339809999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.578428</v>
+        <v>14.578428000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.710000</v>
+        <v>990.71</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.338000</v>
+        <v>-109.33799999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>52493.493377</v>
+        <v>52493.493376999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>14.581526</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.049000</v>
+        <v>999.04899999999998</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.033000</v>
+        <v>-125.033</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>52504.108262</v>
+        <v>52504.108262000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.584475</v>
+        <v>14.584474999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.027000</v>
+        <v>-197.02699999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>52514.769770</v>
+        <v>52514.769769999999</v>
       </c>
       <c r="BJ2" s="1">
         <v>14.587436</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.526000</v>
+        <v>-313.52600000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>52526.241208</v>
+        <v>52526.241207999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>14.590623</v>
+        <v>14.590623000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1213.980000</v>
+        <v>1213.98</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-496.752000</v>
+        <v>-496.75200000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>52536.707326</v>
+        <v>52536.707326000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>14.593530</v>
+        <v>14.593529999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1335.820000</v>
+        <v>1335.82</v>
       </c>
       <c r="BV2" s="1">
-        <v>-697.941000</v>
+        <v>-697.94100000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>52547.398060</v>
+        <v>52547.39806</v>
       </c>
       <c r="BY2" s="1">
         <v>14.596499</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.160000</v>
+        <v>1472.16</v>
       </c>
       <c r="CA2" s="1">
-        <v>-911.427000</v>
+        <v>-911.42700000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>52559.014650</v>
+        <v>52559.014649999997</v>
       </c>
       <c r="CD2" s="1">
         <v>14.599726</v>
       </c>
       <c r="CE2" s="1">
-        <v>1827.760000</v>
+        <v>1827.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1418.630000</v>
+        <v>-1418.63</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>52388.153998</v>
+        <v>52388.153998000002</v>
       </c>
       <c r="B3" s="1">
         <v>14.552265</v>
       </c>
       <c r="C3" s="1">
-        <v>897.212000</v>
+        <v>897.21199999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.964000</v>
+        <v>-197.964</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>52398.502069</v>
+        <v>52398.502069000002</v>
       </c>
       <c r="G3" s="1">
         <v>14.555139</v>
       </c>
       <c r="H3" s="1">
-        <v>915.284000</v>
+        <v>915.28399999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.874000</v>
+        <v>-168.874</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>52408.907134</v>
+        <v>52408.907134000001</v>
       </c>
       <c r="L3" s="1">
-        <v>14.558030</v>
+        <v>14.55803</v>
       </c>
       <c r="M3" s="1">
-        <v>939.352000</v>
+        <v>939.35199999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.019000</v>
+        <v>-120.01900000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>52419.381622</v>
+        <v>52419.381622000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.560939</v>
+        <v>14.560938999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.419000</v>
+        <v>946.41899999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.006000</v>
+        <v>-104.006</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>52429.935991</v>
+        <v>52429.935990999998</v>
       </c>
       <c r="V3" s="1">
-        <v>14.563871</v>
+        <v>14.563871000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>953.205000</v>
+        <v>953.20500000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.056400</v>
+        <v>-89.056399999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>52441.031036</v>
@@ -813,58 +1229,58 @@
         <v>14.566953</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.558000</v>
+        <v>960.55799999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.375200</v>
+        <v>-77.375200000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>52451.645915</v>
+        <v>52451.645915000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>14.569902</v>
+        <v>14.569902000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.354000</v>
+        <v>965.35400000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.170100</v>
+        <v>-75.170100000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>52462.107502</v>
+        <v>52462.107501999999</v>
       </c>
       <c r="AK3" s="1">
         <v>14.572808</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.610000</v>
+        <v>972.61</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.944600</v>
+        <v>-79.944599999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>52472.062208</v>
+        <v>52472.062208000003</v>
       </c>
       <c r="AP3" s="1">
         <v>14.575573</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.756000</v>
+        <v>980.75599999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.588400</v>
+        <v>-91.588399999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>52482.705361</v>
@@ -873,345 +1289,345 @@
         <v>14.578529</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.721000</v>
+        <v>990.721</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.338000</v>
+        <v>-109.33799999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>52493.891176</v>
+        <v>52493.891175999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>14.581636</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.057000</v>
+        <v>999.05700000000002</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.037000</v>
+        <v>-125.03700000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>52504.520440</v>
+        <v>52504.52044</v>
       </c>
       <c r="BE3" s="1">
-        <v>14.584589</v>
+        <v>14.584588999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.120000</v>
+        <v>1038.1199999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.026000</v>
+        <v>-197.02600000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>52515.179958</v>
+        <v>52515.179958000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>14.587550</v>
+        <v>14.58755</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.280000</v>
+        <v>1105.28</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.518000</v>
+        <v>-313.51799999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>52526.367688</v>
+        <v>52526.367687999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>14.590658</v>
+        <v>14.590657999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-496.787000</v>
+        <v>-496.78699999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>52537.139836</v>
+        <v>52537.139836000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>14.593650</v>
+        <v>14.59365</v>
       </c>
       <c r="BU3" s="1">
-        <v>1335.800000</v>
+        <v>1335.8</v>
       </c>
       <c r="BV3" s="1">
-        <v>-697.934000</v>
+        <v>-697.93399999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>52547.883149</v>
+        <v>52547.883149000001</v>
       </c>
       <c r="BY3" s="1">
         <v>14.596634</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="CA3" s="1">
-        <v>-911.555000</v>
+        <v>-911.55499999999995</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>52559.580301</v>
+        <v>52559.580301000002</v>
       </c>
       <c r="CD3" s="1">
         <v>14.599883</v>
       </c>
       <c r="CE3" s="1">
-        <v>1829.790000</v>
+        <v>1829.79</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1418.460000</v>
+        <v>-1418.46</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>52388.496503</v>
+        <v>52388.496503000002</v>
       </c>
       <c r="B4" s="1">
-        <v>14.552360</v>
+        <v>14.55236</v>
       </c>
       <c r="C4" s="1">
-        <v>897.403000</v>
+        <v>897.40300000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.138000</v>
+        <v>-198.13800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>52398.846257</v>
+        <v>52398.846256999997</v>
       </c>
       <c r="G4" s="1">
         <v>14.555235</v>
       </c>
       <c r="H4" s="1">
-        <v>915.606000</v>
+        <v>915.60599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.433000</v>
+        <v>-168.43299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>52409.249843</v>
+        <v>52409.249842999998</v>
       </c>
       <c r="L4" s="1">
         <v>14.558125</v>
       </c>
       <c r="M4" s="1">
-        <v>939.220000</v>
+        <v>939.22</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.046000</v>
+        <v>-120.04600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>52420.049263</v>
+        <v>52420.049263000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.561125</v>
+        <v>14.561125000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>946.323000</v>
+        <v>946.32299999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.037000</v>
+        <v>-104.03700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>52430.595671</v>
+        <v>52430.595671000003</v>
       </c>
       <c r="V4" s="1">
         <v>14.564054</v>
       </c>
       <c r="W4" s="1">
-        <v>953.272000</v>
+        <v>953.27200000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.987300</v>
+        <v>-88.987300000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>52441.418377</v>
+        <v>52441.418377000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.567061</v>
+        <v>14.567061000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.496000</v>
+        <v>960.49599999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.400900</v>
+        <v>-77.400899999999993</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>52451.990114</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.569997</v>
+        <v>14.569997000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.368000</v>
+        <v>965.36800000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.164700</v>
+        <v>-75.164699999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>52462.456594</v>
+        <v>52462.456594000003</v>
       </c>
       <c r="AK4" s="1">
         <v>14.572905</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.612000</v>
+        <v>972.61199999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.929600</v>
+        <v>-79.929599999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>52472.423792</v>
+        <v>52472.423792000001</v>
       </c>
       <c r="AP4" s="1">
         <v>14.575673</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.754000</v>
+        <v>980.75400000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.590500</v>
+        <v>-91.590500000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>52483.351648</v>
+        <v>52483.351648000003</v>
       </c>
       <c r="AU4" s="1">
         <v>14.578709</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.728000</v>
+        <v>990.72799999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.338000</v>
+        <v>-109.33799999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>52494.317239</v>
+        <v>52494.317239000004</v>
       </c>
       <c r="AZ4" s="1">
-        <v>14.581755</v>
+        <v>14.581754999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.056000</v>
+        <v>999.05600000000004</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.033000</v>
+        <v>-125.033</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>52504.851268</v>
+        <v>52504.851267999999</v>
       </c>
       <c r="BE4" s="1">
         <v>14.584681</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.041000</v>
+        <v>-197.041</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>52515.549943</v>
+        <v>52515.549942999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>14.587653</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.260000</v>
+        <v>1105.26</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.531000</v>
+        <v>-313.53100000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>52526.793751</v>
+        <v>52526.793750999997</v>
       </c>
       <c r="BO4" s="1">
         <v>14.590776</v>
       </c>
       <c r="BP4" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-496.738000</v>
+        <v>-496.738</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>52537.555449</v>
+        <v>52537.555448999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>14.593765</v>
+        <v>14.593764999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1335.830000</v>
+        <v>1335.83</v>
       </c>
       <c r="BV4" s="1">
-        <v>-697.841000</v>
+        <v>-697.84100000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>52548.331069</v>
@@ -1220,195 +1636,195 @@
         <v>14.596759</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="CA4" s="1">
-        <v>-911.568000</v>
+        <v>-911.56799999999998</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>52560.117469</v>
+        <v>52560.117468999997</v>
       </c>
       <c r="CD4" s="1">
         <v>14.600033</v>
       </c>
       <c r="CE4" s="1">
-        <v>1828.500000</v>
+        <v>1828.5</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1418.120000</v>
+        <v>-1418.12</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>52388.836493</v>
+        <v>52388.836493000003</v>
       </c>
       <c r="B5" s="1">
         <v>14.552455</v>
       </c>
       <c r="C5" s="1">
-        <v>897.494000</v>
+        <v>897.49400000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.107000</v>
+        <v>-198.107</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>52399.500481</v>
+        <v>52399.500481000003</v>
       </c>
       <c r="G5" s="1">
         <v>14.555417</v>
       </c>
       <c r="H5" s="1">
-        <v>915.351000</v>
+        <v>915.351</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.337000</v>
+        <v>-168.33699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>52409.910017</v>
+        <v>52409.910017000002</v>
       </c>
       <c r="L5" s="1">
         <v>14.558308</v>
       </c>
       <c r="M5" s="1">
-        <v>939.363000</v>
+        <v>939.36300000000006</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.972000</v>
+        <v>-119.97199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>52420.428180</v>
+        <v>52420.428180000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.561230</v>
+        <v>14.56123</v>
       </c>
       <c r="R5" s="1">
-        <v>946.326000</v>
+        <v>946.32600000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.982000</v>
+        <v>-103.982</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>52430.965232</v>
+        <v>52430.965232000002</v>
       </c>
       <c r="V5" s="1">
         <v>14.564157</v>
       </c>
       <c r="W5" s="1">
-        <v>953.252000</v>
+        <v>953.25199999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.030000</v>
+        <v>-89.03</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>52441.768055</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.567158</v>
+        <v>14.567157999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.582000</v>
+        <v>960.58199999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.377500</v>
+        <v>-77.377499999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>52452.331881</v>
+        <v>52452.331880999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>14.570092</v>
+        <v>14.570092000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.333000</v>
+        <v>965.33299999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.176600</v>
+        <v>-75.176599999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>52462.801404</v>
+        <v>52462.801403999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>14.573000</v>
+        <v>14.573</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.623000</v>
+        <v>972.62300000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.926600</v>
+        <v>-79.926599999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>52472.850846</v>
+        <v>52472.850846000001</v>
       </c>
       <c r="AP5" s="1">
         <v>14.575792</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.767000</v>
+        <v>980.76700000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.578500</v>
+        <v>-91.578500000000005</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>52483.829296</v>
+        <v>52483.829296000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>14.578841</v>
+        <v>14.578841000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.708000</v>
+        <v>990.70799999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.363000</v>
+        <v>-109.363</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>52494.610870</v>
+        <v>52494.610869999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.581836</v>
+        <v>14.581835999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.037000</v>
+        <v>999.03700000000003</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.026000</v>
+        <v>-125.026</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>52505.212325</v>
@@ -1417,330 +1833,330 @@
         <v>14.584781</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.061000</v>
+        <v>-197.06100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>52515.923431</v>
+        <v>52515.923431000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>14.587757</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.300000</v>
+        <v>1105.3</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.538000</v>
+        <v>-313.53800000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>52527.191049</v>
+        <v>52527.191049000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.590886</v>
+        <v>14.590885999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-496.791000</v>
+        <v>-496.791</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>52537.991433</v>
+        <v>52537.991433000003</v>
       </c>
       <c r="BT5" s="1">
         <v>14.593887</v>
       </c>
       <c r="BU5" s="1">
-        <v>1335.710000</v>
+        <v>1335.71</v>
       </c>
       <c r="BV5" s="1">
-        <v>-697.870000</v>
+        <v>-697.87</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>52548.758586</v>
+        <v>52548.758586000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>14.596877</v>
+        <v>14.596876999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="CA5" s="1">
-        <v>-911.513000</v>
+        <v>-911.51300000000003</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>52560.657116</v>
+        <v>52560.657116000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>14.600183</v>
+        <v>14.600182999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.840000</v>
+        <v>1828.84</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1419.540000</v>
+        <v>-1419.54</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>52389.493234</v>
+        <v>52389.493234000001</v>
       </c>
       <c r="B6" s="1">
-        <v>14.552637</v>
+        <v>14.552637000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>897.301000</v>
+        <v>897.30100000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.974000</v>
+        <v>-197.97399999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>52399.881408</v>
+        <v>52399.881408000001</v>
       </c>
       <c r="G6" s="1">
-        <v>14.555523</v>
+        <v>14.555523000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>915.579000</v>
+        <v>915.57899999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.161000</v>
+        <v>-168.161</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>52410.289457</v>
+        <v>52410.289456999999</v>
       </c>
       <c r="L6" s="1">
-        <v>14.558414</v>
+        <v>14.558414000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>939.234000</v>
+        <v>939.23400000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.080000</v>
+        <v>-120.08</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>52420.778852</v>
+        <v>52420.778852000003</v>
       </c>
       <c r="Q6" s="1">
         <v>14.561327</v>
       </c>
       <c r="R6" s="1">
-        <v>946.345000</v>
+        <v>946.34500000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.923000</v>
+        <v>-103.923</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>52431.335243</v>
+        <v>52431.335243000001</v>
       </c>
       <c r="V6" s="1">
-        <v>14.564260</v>
+        <v>14.564260000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.132000</v>
+        <v>953.13199999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.998800</v>
+        <v>-88.998800000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>52442.117767</v>
+        <v>52442.117767000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.567255</v>
+        <v>14.567254999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.581000</v>
+        <v>960.58100000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.352400</v>
+        <v>-77.352400000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>52452.752953</v>
+        <v>52452.752953000003</v>
       </c>
       <c r="AF6" s="1">
         <v>14.570209</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.292000</v>
+        <v>965.29200000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.208900</v>
+        <v>-75.2089</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>52463.223281</v>
+        <v>52463.223280999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>14.573118</v>
+        <v>14.573117999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.612000</v>
+        <v>972.61199999999997</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.938400</v>
+        <v>-79.938400000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>52473.141999</v>
+        <v>52473.141998999999</v>
       </c>
       <c r="AP6" s="1">
         <v>14.575873</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.754000</v>
+        <v>980.75400000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.583000</v>
+        <v>-91.582999999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>52484.192865</v>
+        <v>52484.192864999997</v>
       </c>
       <c r="AU6" s="1">
         <v>14.578942</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.691000</v>
+        <v>990.69100000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.336000</v>
+        <v>-109.336</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>52494.966467</v>
+        <v>52494.966466999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>14.581935</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.034000</v>
+        <v>999.03399999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.053000</v>
+        <v>-125.053</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>52505.574900</v>
+        <v>52505.5749</v>
       </c>
       <c r="BE6" s="1">
         <v>14.584882</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.047000</v>
+        <v>-197.047</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>52516.307829</v>
+        <v>52516.307828999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.587863</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.220000</v>
+        <v>1105.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.508000</v>
+        <v>-313.50799999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>52527.614630</v>
+        <v>52527.614629999996</v>
       </c>
       <c r="BO6" s="1">
         <v>14.591004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-496.755000</v>
+        <v>-496.755</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>52538.419481</v>
+        <v>52538.419480999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>14.594005</v>
+        <v>14.594004999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1335.690000</v>
+        <v>1335.69</v>
       </c>
       <c r="BV6" s="1">
-        <v>-697.889000</v>
+        <v>-697.88900000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>52549.173748</v>
+        <v>52549.173748000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.596993</v>
+        <v>14.596992999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.140000</v>
+        <v>1472.14</v>
       </c>
       <c r="CA6" s="1">
-        <v>-911.367000</v>
+        <v>-911.36699999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>52561.196763</v>
@@ -1749,287 +2165,287 @@
         <v>14.600332</v>
       </c>
       <c r="CE6" s="1">
-        <v>1829.150000</v>
+        <v>1829.15</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1417.900000</v>
+        <v>-1417.9</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>52389.862223</v>
+        <v>52389.862222999996</v>
       </c>
       <c r="B7" s="1">
-        <v>14.552740</v>
+        <v>14.55274</v>
       </c>
       <c r="C7" s="1">
-        <v>897.385000</v>
+        <v>897.38499999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.103000</v>
+        <v>-198.10300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>52400.225665</v>
+        <v>52400.225664999998</v>
       </c>
       <c r="G7" s="1">
-        <v>14.555618</v>
+        <v>14.555618000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>915.444000</v>
+        <v>915.44399999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.023000</v>
+        <v>-168.023</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>52410.631233</v>
       </c>
       <c r="L7" s="1">
-        <v>14.558509</v>
+        <v>14.558509000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>939.186000</v>
+        <v>939.18600000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.152000</v>
+        <v>-120.152</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>52421.125060</v>
+        <v>52421.125059999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.561424</v>
+        <v>14.561424000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.352000</v>
+        <v>946.35199999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.947000</v>
+        <v>-103.947</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>52431.653637</v>
+        <v>52431.653637000003</v>
       </c>
       <c r="V7" s="1">
-        <v>14.564348</v>
+        <v>14.564348000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>953.182000</v>
+        <v>953.18200000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.034100</v>
+        <v>-89.034099999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>52442.545288</v>
+        <v>52442.545288000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>14.567374</v>
+        <v>14.567373999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.532000</v>
+        <v>960.53200000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.335100</v>
+        <v>-77.335099999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>52453.033193</v>
+        <v>52453.033193000003</v>
       </c>
       <c r="AF7" s="1">
         <v>14.570287</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.268000</v>
+        <v>965.26800000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.159000</v>
+        <v>-75.159000000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>52463.513164</v>
+        <v>52463.513164000004</v>
       </c>
       <c r="AK7" s="1">
         <v>14.573198</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.610000</v>
+        <v>972.61</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.932600</v>
+        <v>-79.932599999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>52473.501103</v>
+        <v>52473.501103000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.575973</v>
+        <v>14.575972999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.754000</v>
+        <v>980.75400000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.572400</v>
+        <v>-91.572400000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>52484.556432</v>
+        <v>52484.556431999998</v>
       </c>
       <c r="AU7" s="1">
         <v>14.579043</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.702000</v>
+        <v>990.702</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.349000</v>
+        <v>-109.349</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>52495.326097</v>
+        <v>52495.326096999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.582035</v>
+        <v>14.582034999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.056000</v>
+        <v>999.05600000000004</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.037000</v>
+        <v>-125.03700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>52506.295090</v>
+        <v>52506.29509</v>
       </c>
       <c r="BE7" s="1">
         <v>14.585082</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.043000</v>
+        <v>-197.04300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>52517.072165</v>
+        <v>52517.072164999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.588076</v>
+        <v>14.588075999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.300000</v>
+        <v>1105.3</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.538000</v>
+        <v>-313.53800000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>52528.008486</v>
+        <v>52528.008485999999</v>
       </c>
       <c r="BO7" s="1">
         <v>14.591113</v>
       </c>
       <c r="BP7" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-496.760000</v>
+        <v>-496.76</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>52538.833143</v>
+        <v>52538.833143000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.594120</v>
+        <v>14.59412</v>
       </c>
       <c r="BU7" s="1">
-        <v>1335.670000</v>
+        <v>1335.67</v>
       </c>
       <c r="BV7" s="1">
-        <v>-697.866000</v>
+        <v>-697.86599999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>52549.601786</v>
+        <v>52549.601785999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>14.597112</v>
+        <v>14.597111999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.230000</v>
+        <v>1472.23</v>
       </c>
       <c r="CA7" s="1">
-        <v>-911.508000</v>
+        <v>-911.50800000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>52562.046905</v>
+        <v>52562.046905000003</v>
       </c>
       <c r="CD7" s="1">
         <v>14.600569</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.540000</v>
+        <v>1829.54</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1419.440000</v>
+        <v>-1419.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>52390.201980</v>
+        <v>52390.201979999998</v>
       </c>
       <c r="B8" s="1">
-        <v>14.552834</v>
+        <v>14.552834000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>897.276000</v>
+        <v>897.27599999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.117000</v>
+        <v>-198.11699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>52400.570881</v>
@@ -2038,270 +2454,270 @@
         <v>14.555714</v>
       </c>
       <c r="H8" s="1">
-        <v>915.228000</v>
+        <v>915.22799999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.134000</v>
+        <v>-168.13399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>52410.979921</v>
+        <v>52410.979920999998</v>
       </c>
       <c r="L8" s="1">
-        <v>14.558606</v>
+        <v>14.558605999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>939.356000</v>
+        <v>939.35599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.104000</v>
+        <v>-120.104</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>52421.545172</v>
+        <v>52421.545171999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>14.561540</v>
+        <v>14.561540000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>946.344000</v>
+        <v>946.34400000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.951000</v>
+        <v>-103.95099999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>52432.341093</v>
+        <v>52432.341093000003</v>
       </c>
       <c r="V8" s="1">
         <v>14.564539</v>
       </c>
       <c r="W8" s="1">
-        <v>953.175000</v>
+        <v>953.17499999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.933200</v>
+        <v>-88.933199999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>52442.826024</v>
+        <v>52442.826024000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.567452</v>
+        <v>14.567451999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.543000</v>
+        <v>960.54300000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.348300</v>
+        <v>-77.348299999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>52453.376920</v>
+        <v>52453.376920000002</v>
       </c>
       <c r="AF8" s="1">
         <v>14.570382</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.334000</v>
+        <v>965.33399999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.083800</v>
+        <v>-75.083799999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>52463.862348</v>
+        <v>52463.862348000002</v>
       </c>
       <c r="AK8" s="1">
         <v>14.573295</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.603000</v>
+        <v>972.60299999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.956400</v>
+        <v>-79.956400000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>52473.862189</v>
+        <v>52473.862188999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.576073</v>
+        <v>14.576072999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.776000</v>
+        <v>980.77599999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.596300</v>
+        <v>-91.596299999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>52485.294974</v>
+        <v>52485.294973999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.579249</v>
+        <v>14.579249000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.714000</v>
+        <v>990.71400000000006</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.355000</v>
+        <v>-109.355</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>52496.043776</v>
+        <v>52496.043775999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.582234</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.056000</v>
+        <v>999.05600000000004</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>52506.686110</v>
+        <v>52506.686110000002</v>
       </c>
       <c r="BE8" s="1">
         <v>14.585191</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.120000</v>
+        <v>1038.1199999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.054000</v>
+        <v>-197.054</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>52517.445156</v>
+        <v>52517.445156000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>14.588179</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.230000</v>
+        <v>1105.23</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.537000</v>
+        <v>-313.53699999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>52528.428101</v>
+        <v>52528.428100999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.591230</v>
+        <v>14.591229999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-496.771000</v>
+        <v>-496.77100000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>52539.570199</v>
+        <v>52539.570199000002</v>
       </c>
       <c r="BT8" s="1">
         <v>14.594325</v>
       </c>
       <c r="BU8" s="1">
-        <v>1335.640000</v>
+        <v>1335.64</v>
       </c>
       <c r="BV8" s="1">
-        <v>-697.801000</v>
+        <v>-697.80100000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>52550.340824</v>
+        <v>52550.340823999999</v>
       </c>
       <c r="BY8" s="1">
         <v>14.597317</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="CA8" s="1">
-        <v>-911.544000</v>
+        <v>-911.54399999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>52562.278040</v>
+        <v>52562.278039999997</v>
       </c>
       <c r="CD8" s="1">
         <v>14.600633</v>
       </c>
       <c r="CE8" s="1">
-        <v>1829.350000</v>
+        <v>1829.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1419.800000</v>
+        <v>-1419.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>52390.546204</v>
+        <v>52390.546203999998</v>
       </c>
       <c r="B9" s="1">
-        <v>14.552930</v>
+        <v>14.55293</v>
       </c>
       <c r="C9" s="1">
-        <v>897.389000</v>
+        <v>897.38900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.037000</v>
+        <v>-198.03700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>52401.000383</v>
+        <v>52401.000382999999</v>
       </c>
       <c r="G9" s="1">
         <v>14.555833</v>
       </c>
       <c r="H9" s="1">
-        <v>915.069000</v>
+        <v>915.06899999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.067000</v>
+        <v>-168.06700000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>52411.405993</v>
@@ -2310,692 +2726,692 @@
         <v>14.558724</v>
       </c>
       <c r="M9" s="1">
-        <v>939.164000</v>
+        <v>939.16399999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.010000</v>
+        <v>-120.01</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>52421.825942</v>
+        <v>52421.825942000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>14.561618</v>
+        <v>14.561617999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.356000</v>
+        <v>946.35599999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.005000</v>
+        <v>-104.005</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>52432.686804</v>
+        <v>52432.686803999997</v>
       </c>
       <c r="V9" s="1">
-        <v>14.564635</v>
+        <v>14.564635000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.193000</v>
+        <v>953.19299999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.948600</v>
+        <v>-88.948599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>52443.175212</v>
+        <v>52443.175212000002</v>
       </c>
       <c r="AA9" s="1">
         <v>14.567549</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.583000</v>
+        <v>960.58299999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.336600</v>
+        <v>-77.336600000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>52453.720649</v>
+        <v>52453.720649000003</v>
       </c>
       <c r="AF9" s="1">
         <v>14.570478</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.332000</v>
+        <v>965.33199999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.159900</v>
+        <v>-75.159899999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>52464.210538</v>
+        <v>52464.210537999999</v>
       </c>
       <c r="AK9" s="1">
         <v>14.573392</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.601000</v>
+        <v>972.601</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.935400</v>
+        <v>-79.935400000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>52474.580893</v>
+        <v>52474.580892999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.576272</v>
+        <v>14.576271999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.751000</v>
+        <v>980.75099999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.590500</v>
+        <v>-91.590500000000006</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>52485.673919</v>
+        <v>52485.673919000001</v>
       </c>
       <c r="AU9" s="1">
         <v>14.579354</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.713000</v>
+        <v>990.71299999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.336000</v>
+        <v>-109.336</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>52496.399904</v>
+        <v>52496.399903999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>14.582333</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.054000</v>
+        <v>999.05399999999997</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.026000</v>
+        <v>-125.026</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>52507.066370</v>
+        <v>52507.06637</v>
       </c>
       <c r="BE9" s="1">
         <v>14.585296</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.110000</v>
+        <v>1038.1099999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.046000</v>
+        <v>-197.04599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>52518.134100</v>
+        <v>52518.134100000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>14.588371</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.230000</v>
+        <v>1105.23</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.528000</v>
+        <v>-313.52800000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>52529.132388</v>
+        <v>52529.132387999998</v>
       </c>
       <c r="BO9" s="1">
         <v>14.591426</v>
       </c>
       <c r="BP9" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-496.826000</v>
+        <v>-496.82600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>52539.688278</v>
+        <v>52539.688278000001</v>
       </c>
       <c r="BT9" s="1">
         <v>14.594358</v>
       </c>
       <c r="BU9" s="1">
-        <v>1335.670000</v>
+        <v>1335.67</v>
       </c>
       <c r="BV9" s="1">
-        <v>-697.801000</v>
+        <v>-697.80100000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>52550.462842</v>
+        <v>52550.462842000001</v>
       </c>
       <c r="BY9" s="1">
         <v>14.597351</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="CA9" s="1">
-        <v>-911.403000</v>
+        <v>-911.40300000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>52562.796360</v>
+        <v>52562.79636</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.600777</v>
+        <v>14.600777000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1829.530000</v>
+        <v>1829.53</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1418.210000</v>
+        <v>-1418.21</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>52390.954938</v>
+        <v>52390.954938000003</v>
       </c>
       <c r="B10" s="1">
-        <v>14.553043</v>
+        <v>14.553043000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>897.433000</v>
+        <v>897.43299999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.056000</v>
+        <v>-198.05600000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>52401.280158</v>
+        <v>52401.280158000001</v>
       </c>
       <c r="G10" s="1">
         <v>14.555911</v>
       </c>
       <c r="H10" s="1">
-        <v>915.583000</v>
+        <v>915.58299999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.005000</v>
+        <v>-168.005</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>52411.686224</v>
+        <v>52411.686223999997</v>
       </c>
       <c r="L10" s="1">
         <v>14.558802</v>
       </c>
       <c r="M10" s="1">
-        <v>939.291000</v>
+        <v>939.29100000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.117000</v>
+        <v>-120.117</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>52422.175587</v>
+        <v>52422.175586999998</v>
       </c>
       <c r="Q10" s="1">
         <v>14.561715</v>
       </c>
       <c r="R10" s="1">
-        <v>946.368000</v>
+        <v>946.36800000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.016000</v>
+        <v>-104.01600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>52433.034499</v>
+        <v>52433.034499000001</v>
       </c>
       <c r="V10" s="1">
-        <v>14.564732</v>
+        <v>14.564731999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>953.202000</v>
+        <v>953.202</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.976800</v>
+        <v>-88.976799999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>52443.522901</v>
+        <v>52443.522900999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.567645</v>
+        <v>14.567645000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.555000</v>
+        <v>960.55499999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.349000</v>
+        <v>-77.349000000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>52454.406153</v>
+        <v>52454.406153000004</v>
       </c>
       <c r="AF10" s="1">
         <v>14.570668</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.311000</v>
+        <v>965.31100000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.161700</v>
+        <v>-75.161699999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>52464.908409</v>
+        <v>52464.908409000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.573586</v>
+        <v>14.573586000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.618000</v>
+        <v>972.61800000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.943400</v>
+        <v>-79.943399999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>52474.943500</v>
+        <v>52474.943500000001</v>
       </c>
       <c r="AP10" s="1">
         <v>14.576373</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.766000</v>
+        <v>980.76599999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.597100</v>
+        <v>-91.597099999999998</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>52486.037794</v>
+        <v>52486.037794000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.579455</v>
+        <v>14.579454999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.702000</v>
+        <v>990.702</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.360000</v>
+        <v>-109.36</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>52496.762479</v>
+        <v>52496.762478999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>14.582434</v>
+        <v>14.582433999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.056000</v>
+        <v>999.05600000000004</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.030000</v>
+        <v>-125.03</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>52507.737456</v>
+        <v>52507.737456000003</v>
       </c>
       <c r="BE10" s="1">
         <v>14.585483</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.053000</v>
+        <v>-197.053</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>52518.602322</v>
+        <v>52518.602321999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>14.588501</v>
+        <v>14.588501000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.210000</v>
+        <v>1105.21</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.579000</v>
+        <v>-313.57900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>52529.247956</v>
+        <v>52529.247955999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>14.591458</v>
+        <v>14.591457999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-496.803000</v>
+        <v>-496.803</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>52540.101415</v>
+        <v>52540.101414999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>14.594473</v>
+        <v>14.594473000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1335.580000</v>
+        <v>1335.58</v>
       </c>
       <c r="BV10" s="1">
-        <v>-697.710000</v>
+        <v>-697.71</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>52550.883983</v>
       </c>
       <c r="BY10" s="1">
-        <v>14.597468</v>
+        <v>14.597467999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="CA10" s="1">
-        <v>-911.473000</v>
+        <v>-911.47299999999996</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>52563.314353</v>
+        <v>52563.314353000002</v>
       </c>
       <c r="CD10" s="1">
         <v>14.600921</v>
       </c>
       <c r="CE10" s="1">
-        <v>1829.700000</v>
+        <v>1829.7</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1418.540000</v>
+        <v>-1418.54</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>52391.234154</v>
+        <v>52391.234153999998</v>
       </c>
       <c r="B11" s="1">
-        <v>14.553121</v>
+        <v>14.553121000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>897.561000</v>
+        <v>897.56100000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.184000</v>
+        <v>-198.184</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>52401.624846</v>
+        <v>52401.624845999999</v>
       </c>
       <c r="G11" s="1">
-        <v>14.556007</v>
+        <v>14.556006999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>915.571000</v>
+        <v>915.57100000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.123000</v>
+        <v>-168.12299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>52412.032400</v>
+        <v>52412.032399999996</v>
       </c>
       <c r="L11" s="1">
-        <v>14.558898</v>
+        <v>14.558897999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>939.236000</v>
+        <v>939.23599999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.009000</v>
+        <v>-120.009</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>52422.522321</v>
+        <v>52422.522320999997</v>
       </c>
       <c r="Q11" s="1">
         <v>14.561812</v>
       </c>
       <c r="R11" s="1">
-        <v>946.310000</v>
+        <v>946.31</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.930000</v>
+        <v>-103.93</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>52433.718978</v>
+        <v>52433.718977999997</v>
       </c>
       <c r="V11" s="1">
-        <v>14.564922</v>
+        <v>14.564921999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>953.098000</v>
+        <v>953.09799999999996</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.961400</v>
+        <v>-88.961399999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>52444.221270</v>
+        <v>52444.221270000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.567839</v>
+        <v>14.567838999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.608000</v>
+        <v>960.60799999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.471900</v>
+        <v>-77.471900000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>52454.750876</v>
+        <v>52454.750875999998</v>
       </c>
       <c r="AF11" s="1">
         <v>14.570764</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.337000</v>
+        <v>965.33699999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.175800</v>
+        <v>-75.175799999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>52465.258089</v>
+        <v>52465.258089000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.573683</v>
+        <v>14.573683000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.599000</v>
+        <v>972.59900000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.927800</v>
+        <v>-79.927800000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>52475.304060</v>
+        <v>52475.304060000002</v>
       </c>
       <c r="AP11" s="1">
         <v>14.576473</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.758000</v>
+        <v>980.75800000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.593900</v>
+        <v>-91.593900000000005</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>52486.711052</v>
+        <v>52486.711051999999</v>
       </c>
       <c r="AU11" s="1">
         <v>14.579642</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.700000</v>
+        <v>990.7</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.362000</v>
+        <v>-109.36199999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>52497.435054</v>
+        <v>52497.435054000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>14.582621</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.058000</v>
+        <v>999.05799999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.036000</v>
+        <v>-125.036</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>52508.148176</v>
+        <v>52508.148176000002</v>
       </c>
       <c r="BE11" s="1">
         <v>14.585597</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.022000</v>
+        <v>-197.02199999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>52518.992673</v>
+        <v>52518.992673000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>14.588609</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.260000</v>
+        <v>1105.26</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.536000</v>
+        <v>-313.536</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>52529.674516</v>
+        <v>52529.674515999999</v>
       </c>
       <c r="BO11" s="1">
         <v>14.591576</v>
       </c>
       <c r="BP11" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-496.794000</v>
+        <v>-496.79399999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>52540.532454</v>
@@ -3004,664 +3420,664 @@
         <v>14.594592</v>
       </c>
       <c r="BU11" s="1">
-        <v>1335.690000</v>
+        <v>1335.69</v>
       </c>
       <c r="BV11" s="1">
-        <v>-697.739000</v>
+        <v>-697.73900000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>52551.371015</v>
+        <v>52551.371014999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.597603</v>
+        <v>14.597602999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.250000</v>
+        <v>1472.25</v>
       </c>
       <c r="CA11" s="1">
-        <v>-911.473000</v>
+        <v>-911.47299999999996</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>52563.866262</v>
+        <v>52563.866262000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>14.601074</v>
+        <v>14.601074000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1829.650000</v>
+        <v>1829.65</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1419.570000</v>
+        <v>-1419.57</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>52391.579720</v>
+        <v>52391.579720000002</v>
       </c>
       <c r="B12" s="1">
         <v>14.553217</v>
       </c>
       <c r="C12" s="1">
-        <v>897.246000</v>
+        <v>897.24599999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.222000</v>
+        <v>-198.22200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>52401.968572</v>
+        <v>52401.968571999998</v>
       </c>
       <c r="G12" s="1">
-        <v>14.556102</v>
+        <v>14.556101999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>915.319000</v>
+        <v>915.31899999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.145000</v>
+        <v>-168.14500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>52412.377120</v>
+        <v>52412.377119999997</v>
       </c>
       <c r="L12" s="1">
         <v>14.558994</v>
       </c>
       <c r="M12" s="1">
-        <v>939.174000</v>
+        <v>939.17399999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.979000</v>
+        <v>-119.979</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>52423.218210</v>
+        <v>52423.218209999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.562005</v>
+        <v>14.562004999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>946.346000</v>
+        <v>946.346</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.925000</v>
+        <v>-103.925</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>52434.060721</v>
+        <v>52434.060721000002</v>
       </c>
       <c r="V12" s="1">
-        <v>14.565017</v>
+        <v>14.565016999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>953.218000</v>
+        <v>953.21799999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.011100</v>
+        <v>-89.011099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>52444.567974</v>
+        <v>52444.567973999998</v>
       </c>
       <c r="AA12" s="1">
         <v>14.567936</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.573000</v>
+        <v>960.57299999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.357600</v>
+        <v>-77.357600000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>52455.094102</v>
+        <v>52455.094102000003</v>
       </c>
       <c r="AF12" s="1">
         <v>14.570859</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.332000</v>
+        <v>965.33199999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.190100</v>
+        <v>-75.190100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>52465.606777</v>
+        <v>52465.606777000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>14.573780</v>
+        <v>14.573779999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.608000</v>
+        <v>972.60799999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.908900</v>
+        <v>-79.908900000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>52475.969690</v>
+        <v>52475.969689999998</v>
       </c>
       <c r="AP12" s="1">
         <v>14.576658</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.758000</v>
+        <v>980.75800000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.583400</v>
+        <v>-91.583399999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>52487.167901</v>
+        <v>52487.167901000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.579769</v>
+        <v>14.579769000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.709000</v>
+        <v>990.70899999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.355000</v>
+        <v>-109.355</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>52497.867567</v>
+        <v>52497.867567000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.582741</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.064000</v>
+        <v>999.06399999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.022000</v>
+        <v>-125.02200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>52508.539023</v>
+        <v>52508.539022999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>14.585705</v>
+        <v>14.585705000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.053000</v>
+        <v>-197.053</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>52519.366690</v>
+        <v>52519.366690000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>14.588713</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.280000</v>
+        <v>1105.28</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.558000</v>
+        <v>-313.55799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>52530.068835</v>
+        <v>52530.068834999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.591686</v>
+        <v>14.591685999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1213.980000</v>
+        <v>1213.98</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-496.810000</v>
+        <v>-496.81</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>52540.967462</v>
+        <v>52540.967462000001</v>
       </c>
       <c r="BT12" s="1">
         <v>14.594713</v>
       </c>
       <c r="BU12" s="1">
-        <v>1335.590000</v>
+        <v>1335.59</v>
       </c>
       <c r="BV12" s="1">
-        <v>-697.635000</v>
+        <v>-697.63499999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>52552.174039</v>
+        <v>52552.174038999998</v>
       </c>
       <c r="BY12" s="1">
         <v>14.597826</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.120000</v>
+        <v>1472.12</v>
       </c>
       <c r="CA12" s="1">
-        <v>-911.488000</v>
+        <v>-911.48800000000006</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>52564.393479</v>
+        <v>52564.393478999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>14.601220</v>
+        <v>14.60122</v>
       </c>
       <c r="CE12" s="1">
-        <v>1829.660000</v>
+        <v>1829.66</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1417.920000</v>
+        <v>-1417.92</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>52391.920619</v>
+        <v>52391.920618999997</v>
       </c>
       <c r="B13" s="1">
-        <v>14.553311</v>
+        <v>14.553311000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>897.458000</v>
+        <v>897.45799999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.054000</v>
+        <v>-198.054</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>52402.658507</v>
       </c>
       <c r="G13" s="1">
-        <v>14.556294</v>
+        <v>14.556293999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>915.259000</v>
+        <v>915.25900000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.441000</v>
+        <v>-168.441</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>52413.071059</v>
+        <v>52413.071059000002</v>
       </c>
       <c r="L13" s="1">
         <v>14.559186</v>
       </c>
       <c r="M13" s="1">
-        <v>939.301000</v>
+        <v>939.30100000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.215000</v>
+        <v>-120.215</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>52423.569345</v>
+        <v>52423.569345000004</v>
       </c>
       <c r="Q13" s="1">
         <v>14.562103</v>
       </c>
       <c r="R13" s="1">
-        <v>946.381000</v>
+        <v>946.38099999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.957000</v>
+        <v>-103.95699999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>52434.404450</v>
+        <v>52434.404450000002</v>
       </c>
       <c r="V13" s="1">
-        <v>14.565112</v>
+        <v>14.565111999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>953.168000</v>
+        <v>953.16800000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.030500</v>
+        <v>-89.030500000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>52444.917652</v>
+        <v>52444.917651999996</v>
       </c>
       <c r="AA13" s="1">
         <v>14.568033</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.600000</v>
+        <v>960.6</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.327000</v>
+        <v>-77.326999999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>52455.756229</v>
+        <v>52455.756228999999</v>
       </c>
       <c r="AF13" s="1">
         <v>14.571043</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.341000</v>
+        <v>965.34100000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.150200</v>
+        <v>-75.150199999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>52466.053716</v>
+        <v>52466.053716000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.573904</v>
+        <v>14.573904000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.604000</v>
+        <v>972.60400000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.922200</v>
+        <v>-79.922200000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>52476.413115</v>
+        <v>52476.413115000003</v>
       </c>
       <c r="AP13" s="1">
         <v>14.576781</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.754000</v>
+        <v>980.75400000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.592900</v>
+        <v>-91.5929</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>52487.531933</v>
+        <v>52487.531932999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.579870</v>
+        <v>14.57987</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.724000</v>
+        <v>990.72400000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.350000</v>
+        <v>-109.35</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>52498.226175</v>
+        <v>52498.226175000003</v>
       </c>
       <c r="AZ13" s="1">
         <v>14.582841</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.042000</v>
+        <v>999.04200000000003</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.033000</v>
+        <v>-125.033</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>52508.897631</v>
       </c>
       <c r="BE13" s="1">
-        <v>14.585805</v>
+        <v>14.585805000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.080000</v>
+        <v>1038.08</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.066000</v>
+        <v>-197.066</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>52519.789286</v>
+        <v>52519.789285999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>14.588830</v>
+        <v>14.58883</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.250000</v>
+        <v>1105.25</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.569000</v>
+        <v>-313.56900000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>52530.493411</v>
+        <v>52530.493411000003</v>
       </c>
       <c r="BO13" s="1">
         <v>14.591804</v>
       </c>
       <c r="BP13" s="1">
-        <v>1213.980000</v>
+        <v>1213.98</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-496.784000</v>
+        <v>-496.78399999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>52541.374148</v>
+        <v>52541.374148000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.594826</v>
+        <v>14.594825999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1335.640000</v>
+        <v>1335.64</v>
       </c>
       <c r="BV13" s="1">
-        <v>-697.623000</v>
+        <v>-697.62300000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>52552.623909</v>
+        <v>52552.623909000002</v>
       </c>
       <c r="BY13" s="1">
         <v>14.597951</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.290000</v>
+        <v>1472.29</v>
       </c>
       <c r="CA13" s="1">
-        <v>-911.614000</v>
+        <v>-911.61400000000003</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>52564.913285</v>
+        <v>52564.913285000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>14.601365</v>
+        <v>14.601364999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1828.300000</v>
+        <v>1828.3</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1419.020000</v>
+        <v>-1419.02</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>52392.602161</v>
+        <v>52392.602161000003</v>
       </c>
       <c r="B14" s="1">
-        <v>14.553501</v>
+        <v>14.553501000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>897.398000</v>
+        <v>897.39800000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.121000</v>
+        <v>-198.12100000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>52403.003724</v>
+        <v>52403.003724000002</v>
       </c>
       <c r="G14" s="1">
-        <v>14.556390</v>
+        <v>14.55639</v>
       </c>
       <c r="H14" s="1">
-        <v>915.602000</v>
+        <v>915.60199999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.318000</v>
+        <v>-168.31800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>52413.414749</v>
+        <v>52413.414749000003</v>
       </c>
       <c r="L14" s="1">
         <v>14.559282</v>
       </c>
       <c r="M14" s="1">
-        <v>939.403000</v>
+        <v>939.40300000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.051000</v>
+        <v>-120.051</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>52423.918529</v>
+        <v>52423.918529000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.562200</v>
+        <v>14.562200000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>946.367000</v>
+        <v>946.36699999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.965000</v>
+        <v>-103.965</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>52435.053217</v>
+        <v>52435.053217000001</v>
       </c>
       <c r="V14" s="1">
         <v>14.565293</v>
       </c>
       <c r="W14" s="1">
-        <v>953.241000</v>
+        <v>953.24099999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.033900</v>
+        <v>-89.033900000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>52445.568900</v>
+        <v>52445.568899999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.568214</v>
+        <v>14.568213999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.553000</v>
+        <v>960.553</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.431300</v>
+        <v>-77.431299999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>52456.124756</v>
+        <v>52456.124755999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>14.571146</v>
+        <v>14.571146000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.366000</v>
+        <v>965.36599999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.197900</v>
+        <v>-75.197900000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>52466.307128</v>
@@ -3670,28 +4086,28 @@
         <v>14.573974</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.602000</v>
+        <v>972.60199999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.951300</v>
+        <v>-79.951300000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>52476.774698</v>
+        <v>52476.774698000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>14.576882</v>
+        <v>14.576881999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.736000</v>
+        <v>980.73599999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.609900</v>
+        <v>-91.609899999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>52487.896492</v>
@@ -3700,13 +4116,13 @@
         <v>14.579971</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.708000</v>
+        <v>990.70799999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.343000</v>
+        <v>-109.343</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>52498.586766</v>
@@ -3715,120 +4131,120 @@
         <v>14.582941</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.061000</v>
+        <v>999.06100000000004</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.041000</v>
+        <v>-125.041</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>52509.312752</v>
+        <v>52509.312751999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.585920</v>
+        <v>14.58592</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.039000</v>
+        <v>-197.03899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>52520.115120</v>
+        <v>52520.115120000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.588921</v>
+        <v>14.588920999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.270000</v>
+        <v>1105.27</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.486000</v>
+        <v>-313.48599999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>52530.889252</v>
+        <v>52530.889252000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>14.591914</v>
+        <v>14.591913999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-496.819000</v>
+        <v>-496.81900000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>52541.801732</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.594945</v>
+        <v>14.594944999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1335.600000</v>
+        <v>1335.6</v>
       </c>
       <c r="BV14" s="1">
-        <v>-697.597000</v>
+        <v>-697.59699999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>52553.079732</v>
+        <v>52553.079731999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>14.598078</v>
+        <v>14.598077999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.340000</v>
+        <v>1472.34</v>
       </c>
       <c r="CA14" s="1">
-        <v>-911.518000</v>
+        <v>-911.51800000000003</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>52565.454917</v>
+        <v>52565.454917000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>14.601515</v>
+        <v>14.601514999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1829.670000</v>
+        <v>1829.67</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1418.860000</v>
+        <v>-1418.86</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>52392.946126</v>
+        <v>52392.946126000003</v>
       </c>
       <c r="B15" s="1">
-        <v>14.553596</v>
+        <v>14.553596000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>897.323000</v>
+        <v>897.32299999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.134000</v>
+        <v>-198.13399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>52403.346458</v>
@@ -3837,103 +4253,103 @@
         <v>14.556485</v>
       </c>
       <c r="H15" s="1">
-        <v>915.555000</v>
+        <v>915.55499999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.391000</v>
+        <v>-168.39099999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>52413.764458</v>
+        <v>52413.764457999998</v>
       </c>
       <c r="L15" s="1">
         <v>14.559379</v>
       </c>
       <c r="M15" s="1">
-        <v>939.212000</v>
+        <v>939.21199999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.102000</v>
+        <v>-120.102</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>52424.576719</v>
+        <v>52424.576718999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.562382</v>
+        <v>14.562381999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>946.351000</v>
+        <v>946.351</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.984000</v>
+        <v>-103.98399999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>52435.434176</v>
+        <v>52435.434176000002</v>
       </c>
       <c r="V15" s="1">
         <v>14.565398</v>
       </c>
       <c r="W15" s="1">
-        <v>953.231000</v>
+        <v>953.23099999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.945800</v>
+        <v>-88.945800000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>52445.961234</v>
+        <v>52445.961234000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.568323</v>
+        <v>14.568322999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.586000</v>
+        <v>960.58600000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.379500</v>
+        <v>-77.379499999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>52456.467029</v>
+        <v>52456.467028999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>14.571241</v>
+        <v>14.571241000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.336000</v>
+        <v>965.33600000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.127500</v>
+        <v>-75.127499999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>52466.668215</v>
+        <v>52466.668214999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>14.574075</v>
+        <v>14.574075000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.623000</v>
+        <v>972.62300000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.917000</v>
+        <v>-79.917000000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>52477.137273</v>
@@ -3942,375 +4358,375 @@
         <v>14.576983</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.736000</v>
+        <v>980.73599999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.576100</v>
+        <v>-91.576099999999997</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>52488.321077</v>
+        <v>52488.321077000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.580089</v>
+        <v>14.580088999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.706000</v>
+        <v>990.70600000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.351000</v>
+        <v>-109.351</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>52499.000428</v>
+        <v>52499.000427999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>14.583056</v>
+        <v>14.583055999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.044000</v>
+        <v>999.04399999999998</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.033000</v>
+        <v>-125.033</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>52509.623742</v>
+        <v>52509.623742000003</v>
       </c>
       <c r="BE15" s="1">
         <v>14.586007</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.110000</v>
+        <v>1038.1099999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.034000</v>
+        <v>-197.03399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>52520.501504</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.589028</v>
+        <v>14.589028000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.320000</v>
+        <v>1105.32</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.547000</v>
+        <v>-313.54700000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>52531.308835</v>
+        <v>52531.308835000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>14.592030</v>
+        <v>14.592029999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-496.780000</v>
+        <v>-496.78</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>52542.227268</v>
+        <v>52542.227268000002</v>
       </c>
       <c r="BT15" s="1">
         <v>14.595063</v>
       </c>
       <c r="BU15" s="1">
-        <v>1335.700000</v>
+        <v>1335.7</v>
       </c>
       <c r="BV15" s="1">
-        <v>-697.538000</v>
+        <v>-697.53800000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>52553.527156</v>
+        <v>52553.527155999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>14.598202</v>
+        <v>14.598202000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.170000</v>
+        <v>1472.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-911.465000</v>
+        <v>-911.46500000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>52565.992084</v>
+        <v>52565.992083999998</v>
       </c>
       <c r="CD15" s="1">
         <v>14.601664</v>
       </c>
       <c r="CE15" s="1">
-        <v>1828.380000</v>
+        <v>1828.38</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1418.180000</v>
+        <v>-1418.18</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>52393.286136</v>
+        <v>52393.286136000002</v>
       </c>
       <c r="B16" s="1">
-        <v>14.553691</v>
+        <v>14.553691000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>897.392000</v>
+        <v>897.39200000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.043000</v>
+        <v>-198.04300000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>52404.001211</v>
+        <v>52404.001211000003</v>
       </c>
       <c r="G16" s="1">
-        <v>14.556667</v>
+        <v>14.556666999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>915.442000</v>
+        <v>915.44200000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.182000</v>
+        <v>-168.18199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>52414.422620</v>
+        <v>52414.422619999998</v>
       </c>
       <c r="L16" s="1">
         <v>14.559562</v>
       </c>
       <c r="M16" s="1">
-        <v>939.273000</v>
+        <v>939.27300000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.021000</v>
+        <v>-120.021</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>52424.965087</v>
+        <v>52424.965086999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.562490</v>
+        <v>14.56249</v>
       </c>
       <c r="R16" s="1">
-        <v>946.329000</v>
+        <v>946.32899999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.957000</v>
+        <v>-103.95699999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>52435.780385</v>
+        <v>52435.780384999998</v>
       </c>
       <c r="V16" s="1">
         <v>14.565495</v>
       </c>
       <c r="W16" s="1">
-        <v>953.118000</v>
+        <v>953.11800000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.994800</v>
+        <v>-88.994799999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>52446.311937</v>
+        <v>52446.311936999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>14.568420</v>
+        <v>14.56842</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.558000</v>
+        <v>960.55799999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.375400</v>
+        <v>-77.375399999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>52456.810725</v>
+        <v>52456.810725000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.571336</v>
+        <v>14.571336000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.384000</v>
+        <v>965.38400000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.216100</v>
+        <v>-75.216099999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>52467.080886</v>
+        <v>52467.080886000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>14.574189</v>
+        <v>14.574189000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.608000</v>
+        <v>972.60799999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.917000</v>
+        <v>-79.917000000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>52477.568825</v>
+        <v>52477.568825000002</v>
       </c>
       <c r="AP16" s="1">
         <v>14.577102</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.755000</v>
+        <v>980.755</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.605900</v>
+        <v>-91.605900000000005</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>52488.626638</v>
+        <v>52488.626638000002</v>
       </c>
       <c r="AU16" s="1">
         <v>14.580174</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.721000</v>
+        <v>990.721</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.340000</v>
+        <v>-109.34</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>52499.303982</v>
+        <v>52499.303981999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.583140</v>
+        <v>14.58314</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.038000</v>
+        <v>999.03800000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.029000</v>
+        <v>-125.029</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>52509.983343</v>
       </c>
       <c r="BE16" s="1">
-        <v>14.586106</v>
+        <v>14.586105999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.025000</v>
+        <v>-197.02500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>52520.889382</v>
+        <v>52520.889382000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>14.589136</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.250000</v>
+        <v>1105.25</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.578000</v>
+        <v>-313.57799999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>52531.704158</v>
       </c>
       <c r="BO16" s="1">
-        <v>14.592140</v>
+        <v>14.592140000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-496.784000</v>
+        <v>-496.78399999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>52542.657298</v>
+        <v>52542.657297999998</v>
       </c>
       <c r="BT16" s="1">
         <v>14.595183</v>
       </c>
       <c r="BU16" s="1">
-        <v>1335.630000</v>
+        <v>1335.63</v>
       </c>
       <c r="BV16" s="1">
-        <v>-697.532000</v>
+        <v>-697.53200000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>52553.984931</v>
+        <v>52553.984930999999</v>
       </c>
       <c r="BY16" s="1">
         <v>14.598329</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.190000</v>
+        <v>1472.19</v>
       </c>
       <c r="CA16" s="1">
-        <v>-911.556000</v>
+        <v>-911.55600000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>52566.532755</v>
@@ -4319,273 +4735,273 @@
         <v>14.601815</v>
       </c>
       <c r="CE16" s="1">
-        <v>1829.060000</v>
+        <v>1829.06</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1419.730000</v>
+        <v>-1419.73</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>52393.939831</v>
+        <v>52393.939831000003</v>
       </c>
       <c r="B17" s="1">
         <v>14.553872</v>
       </c>
       <c r="C17" s="1">
-        <v>897.380000</v>
+        <v>897.38</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.019000</v>
+        <v>-198.01900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>52404.381113</v>
+        <v>52404.381113000003</v>
       </c>
       <c r="G17" s="1">
         <v>14.556773</v>
       </c>
       <c r="H17" s="1">
-        <v>915.363000</v>
+        <v>915.36300000000006</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.400000</v>
+        <v>-168.4</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>52414.801099</v>
+        <v>52414.801098999997</v>
       </c>
       <c r="L17" s="1">
-        <v>14.559667</v>
+        <v>14.559666999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>939.388000</v>
+        <v>939.38800000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.059000</v>
+        <v>-120.059</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>52425.311821</v>
+        <v>52425.311821000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.562587</v>
+        <v>14.562587000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>946.363000</v>
+        <v>946.36300000000006</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.957000</v>
+        <v>-103.95699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>52436.123087</v>
       </c>
       <c r="V17" s="1">
-        <v>14.565590</v>
+        <v>14.56559</v>
       </c>
       <c r="W17" s="1">
-        <v>953.181000</v>
+        <v>953.18100000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.965100</v>
+        <v>-88.965100000000007</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>52446.659601</v>
+        <v>52446.659600999999</v>
       </c>
       <c r="AA17" s="1">
         <v>14.568517</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.545000</v>
+        <v>960.54499999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.359500</v>
+        <v>-77.359499999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>52457.239804</v>
+        <v>52457.239803999997</v>
       </c>
       <c r="AF17" s="1">
         <v>14.571456</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.254000</v>
+        <v>965.25400000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.223500</v>
+        <v>-75.223500000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>52467.365095</v>
+        <v>52467.365095000001</v>
       </c>
       <c r="AK17" s="1">
         <v>14.574268</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.601000</v>
+        <v>972.601</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.953100</v>
+        <v>-79.953100000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>52477.857002</v>
+        <v>52477.857001999997</v>
       </c>
       <c r="AP17" s="1">
         <v>14.577183</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.762000</v>
+        <v>980.76199999999994</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.599000</v>
+        <v>-91.599000000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>52488.992189</v>
+        <v>52488.992188999997</v>
       </c>
       <c r="AU17" s="1">
         <v>14.580276</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.714000</v>
+        <v>990.71400000000006</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.343000</v>
+        <v>-109.343</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>52499.661632</v>
+        <v>52499.661632000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.583239</v>
+        <v>14.583239000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.054000</v>
+        <v>999.05399999999997</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.036000</v>
+        <v>-125.036</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>52510.344461</v>
+        <v>52510.344461000001</v>
       </c>
       <c r="BE17" s="1">
         <v>14.586207</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.060000</v>
+        <v>-197.06</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>52521.643326</v>
+        <v>52521.643325999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.589345</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.547000</v>
+        <v>-313.54700000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>52532.127232</v>
+        <v>52532.127231999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.592258</v>
+        <v>14.592257999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-496.793000</v>
+        <v>-496.79300000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>52543.070961</v>
+        <v>52543.070960999998</v>
       </c>
       <c r="BT17" s="1">
         <v>14.595297</v>
       </c>
       <c r="BU17" s="1">
-        <v>1335.680000</v>
+        <v>1335.68</v>
       </c>
       <c r="BV17" s="1">
-        <v>-697.457000</v>
+        <v>-697.45699999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>52554.430835</v>
+        <v>52554.430834999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.598453</v>
+        <v>14.598452999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="CA17" s="1">
-        <v>-911.504000</v>
+        <v>-911.50400000000002</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>52567.074850</v>
+        <v>52567.074849999997</v>
       </c>
       <c r="CD17" s="1">
         <v>14.601965</v>
       </c>
       <c r="CE17" s="1">
-        <v>1829.260000</v>
+        <v>1829.26</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1417.730000</v>
+        <v>-1417.73</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>52394.312327</v>
       </c>
@@ -4593,315 +5009,315 @@
         <v>14.553976</v>
       </c>
       <c r="C18" s="1">
-        <v>897.350000</v>
+        <v>897.35</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.931000</v>
+        <v>-197.93100000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>52404.725869</v>
+        <v>52404.725869000002</v>
       </c>
       <c r="G18" s="1">
         <v>14.556868</v>
       </c>
       <c r="H18" s="1">
-        <v>915.544000</v>
+        <v>915.54399999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.892000</v>
+        <v>-167.892</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>52415.145291</v>
+        <v>52415.145291000001</v>
       </c>
       <c r="L18" s="1">
         <v>14.559763</v>
       </c>
       <c r="M18" s="1">
-        <v>939.274000</v>
+        <v>939.274</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.016000</v>
+        <v>-120.01600000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>52425.661470</v>
+        <v>52425.661469999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>14.562684</v>
+        <v>14.562684000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>946.332000</v>
+        <v>946.33199999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.945000</v>
+        <v>-103.94499999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>52436.545184</v>
+        <v>52436.545184000002</v>
       </c>
       <c r="V18" s="1">
         <v>14.565707</v>
       </c>
       <c r="W18" s="1">
-        <v>953.184000</v>
+        <v>953.18399999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.021400</v>
+        <v>-89.0214</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>52447.078722</v>
+        <v>52447.078721999998</v>
       </c>
       <c r="AA18" s="1">
         <v>14.568633</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.535000</v>
+        <v>960.53499999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.375400</v>
+        <v>-77.375399999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>52457.519536</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.571533</v>
+        <v>14.571533000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.270000</v>
+        <v>965.27</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.164500</v>
+        <v>-75.164500000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>52467.710838</v>
+        <v>52467.710837999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.574364</v>
+        <v>14.574363999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.613000</v>
+        <v>972.61300000000006</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.937100</v>
+        <v>-79.937100000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>52478.216104</v>
+        <v>52478.216103999999</v>
       </c>
       <c r="AP18" s="1">
         <v>14.577282</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.745000</v>
+        <v>980.745</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.586900</v>
+        <v>-91.5869</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>52489.353282</v>
+        <v>52489.353281999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.580376</v>
+        <v>14.580375999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.709000</v>
+        <v>990.70899999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.333000</v>
+        <v>-109.333</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>52500.341114</v>
+        <v>52500.341114000003</v>
       </c>
       <c r="AZ18" s="1">
         <v>14.583428</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.037000</v>
+        <v>999.03700000000003</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.029000</v>
+        <v>-125.029</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>52511.065650</v>
+        <v>52511.065649999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>14.586407</v>
+        <v>14.586406999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.110000</v>
+        <v>1038.1099999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.053000</v>
+        <v>-197.053</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>52522.043566</v>
       </c>
       <c r="BJ18" s="1">
-        <v>14.589457</v>
+        <v>14.589456999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.561000</v>
+        <v>-313.56099999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>52532.524032</v>
+        <v>52532.524032000001</v>
       </c>
       <c r="BO18" s="1">
         <v>14.592368</v>
       </c>
       <c r="BP18" s="1">
-        <v>1213.990000</v>
+        <v>1213.99</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-496.791000</v>
+        <v>-496.791</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>52543.500002</v>
+        <v>52543.500002000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.595417</v>
+        <v>14.595416999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1335.760000</v>
+        <v>1335.76</v>
       </c>
       <c r="BV18" s="1">
-        <v>-697.418000</v>
+        <v>-697.41800000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>52555.207075</v>
+        <v>52555.207074999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.598669</v>
+        <v>14.598668999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="CA18" s="1">
-        <v>-911.579000</v>
+        <v>-911.57899999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>52567.921025</v>
+        <v>52567.921025000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>14.602200</v>
+        <v>14.6022</v>
       </c>
       <c r="CE18" s="1">
-        <v>1829.370000</v>
+        <v>1829.37</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1419.250000</v>
+        <v>-1419.25</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>52394.654566</v>
+        <v>52394.654565999997</v>
       </c>
       <c r="B19" s="1">
         <v>14.554071</v>
       </c>
       <c r="C19" s="1">
-        <v>897.407000</v>
+        <v>897.40700000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.120000</v>
+        <v>-198.12</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>52405.070553</v>
+        <v>52405.070552999998</v>
       </c>
       <c r="G19" s="1">
-        <v>14.556964</v>
+        <v>14.556964000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>915.103000</v>
+        <v>915.10299999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.056000</v>
+        <v>-168.05600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>52415.562922</v>
+        <v>52415.562921999997</v>
       </c>
       <c r="L19" s="1">
         <v>14.559879</v>
       </c>
       <c r="M19" s="1">
-        <v>939.352000</v>
+        <v>939.35199999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.951000</v>
+        <v>-119.95099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>52426.080621</v>
+        <v>52426.080621000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.562800</v>
+        <v>14.562799999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>946.381000</v>
+        <v>946.38099999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.973000</v>
+        <v>-103.973</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>52436.836872</v>
@@ -4910,300 +5326,300 @@
         <v>14.565788</v>
       </c>
       <c r="W19" s="1">
-        <v>953.346000</v>
+        <v>953.346</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.008900</v>
+        <v>-89.008899999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>52447.367890</v>
+        <v>52447.367890000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.568713</v>
+        <v>14.568713000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.607000</v>
+        <v>960.60699999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.357500</v>
+        <v>-77.357500000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>52457.861746</v>
+        <v>52457.861746000002</v>
       </c>
       <c r="AF19" s="1">
         <v>14.571628</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.330000</v>
+        <v>965.33</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.156500</v>
+        <v>-75.156499999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>52468.062966</v>
+        <v>52468.062965999998</v>
       </c>
       <c r="AK19" s="1">
         <v>14.574462</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.606000</v>
+        <v>972.60599999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.930000</v>
+        <v>-79.930000000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>52478.579639</v>
+        <v>52478.579639000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.577383</v>
+        <v>14.577382999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.763000</v>
+        <v>980.76300000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.583600</v>
+        <v>-91.583600000000004</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>52490.093272</v>
+        <v>52490.093271999998</v>
       </c>
       <c r="AU19" s="1">
         <v>14.580581</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.707000</v>
+        <v>990.70699999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.349000</v>
+        <v>-109.349</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>52500.740395</v>
+        <v>52500.740395000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>14.583539</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.027000</v>
+        <v>999.02700000000004</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>52511.431164</v>
+        <v>52511.431164000001</v>
       </c>
       <c r="BE19" s="1">
         <v>14.586509</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.038000</v>
+        <v>-197.03800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>52522.416061</v>
+        <v>52522.416061000004</v>
       </c>
       <c r="BJ19" s="1">
-        <v>14.589560</v>
+        <v>14.589560000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.230000</v>
+        <v>1105.23</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.558000</v>
+        <v>-313.55799999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>52532.941204</v>
+        <v>52532.941204000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>14.592484</v>
+        <v>14.592484000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-496.771000</v>
+        <v>-496.77100000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>52544.230608</v>
+        <v>52544.230607999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.595620</v>
+        <v>14.59562</v>
       </c>
       <c r="BU19" s="1">
-        <v>1335.760000</v>
+        <v>1335.76</v>
       </c>
       <c r="BV19" s="1">
-        <v>-697.436000</v>
+        <v>-697.43600000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>52555.335537</v>
+        <v>52555.335536999999</v>
       </c>
       <c r="BY19" s="1">
         <v>14.598704</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.320000</v>
+        <v>1472.32</v>
       </c>
       <c r="CA19" s="1">
-        <v>-911.575000</v>
+        <v>-911.57500000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>52568.148689</v>
+        <v>52568.148689000001</v>
       </c>
       <c r="CD19" s="1">
         <v>14.602264</v>
       </c>
       <c r="CE19" s="1">
-        <v>1829.700000</v>
+        <v>1829.7</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1419.110000</v>
+        <v>-1419.11</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>52394.998790</v>
+        <v>52394.998789999998</v>
       </c>
       <c r="B20" s="1">
         <v>14.554166</v>
       </c>
       <c r="C20" s="1">
-        <v>897.376000</v>
+        <v>897.37599999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.931000</v>
+        <v>-197.93100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>52405.487192</v>
+        <v>52405.487192000001</v>
       </c>
       <c r="G20" s="1">
-        <v>14.557080</v>
+        <v>14.557079999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>915.405000</v>
+        <v>915.40499999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.345000</v>
+        <v>-168.345</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>52415.834757</v>
+        <v>52415.834756999997</v>
       </c>
       <c r="L20" s="1">
-        <v>14.559954</v>
+        <v>14.559953999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>939.386000</v>
+        <v>939.38599999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.172000</v>
+        <v>-120.172</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>52426.366782</v>
+        <v>52426.366781999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>14.562880</v>
+        <v>14.56288</v>
       </c>
       <c r="R20" s="1">
-        <v>946.362000</v>
+        <v>946.36199999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.964000</v>
+        <v>-103.964</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>52437.182082</v>
+        <v>52437.182081999999</v>
       </c>
       <c r="V20" s="1">
         <v>14.565884</v>
       </c>
       <c r="W20" s="1">
-        <v>953.129000</v>
+        <v>953.12900000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.980900</v>
+        <v>-88.980900000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>52447.718561</v>
+        <v>52447.718561000002</v>
       </c>
       <c r="AA20" s="1">
         <v>14.568811</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.515000</v>
+        <v>960.51499999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.350500</v>
+        <v>-77.350499999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>52458.207954</v>
+        <v>52458.207953999998</v>
       </c>
       <c r="AF20" s="1">
         <v>14.571724</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.324000</v>
+        <v>965.32399999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.138000</v>
+        <v>-75.138000000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>52468.756898</v>
@@ -5212,133 +5628,133 @@
         <v>14.574655</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.589000</v>
+        <v>972.58900000000006</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.928800</v>
+        <v>-79.928799999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>52479.287458</v>
+        <v>52479.287457999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>14.577580</v>
+        <v>14.577579999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.745000</v>
+        <v>980.745</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.589400</v>
+        <v>-91.589399999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>52490.474696</v>
+        <v>52490.474695999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.580687</v>
+        <v>14.580686999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.704000</v>
+        <v>990.70399999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.348000</v>
+        <v>-109.348</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>52501.120834</v>
+        <v>52501.120834000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>14.583645</v>
+        <v>14.583645000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.057000</v>
+        <v>999.05700000000002</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.019000</v>
+        <v>-125.01900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>52511.787292</v>
+        <v>52511.787292000001</v>
       </c>
       <c r="BE20" s="1">
         <v>14.586608</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.043000</v>
+        <v>-197.04300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>52523.106028</v>
+        <v>52523.106028000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.589752</v>
+        <v>14.589752000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.522000</v>
+        <v>-313.52199999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>52533.649454</v>
+        <v>52533.649453999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.592680</v>
+        <v>14.59268</v>
       </c>
       <c r="BP20" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-496.785000</v>
+        <v>-496.78500000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>52544.343200</v>
+        <v>52544.343200000003</v>
       </c>
       <c r="BT20" s="1">
         <v>14.595651</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.780000</v>
+        <v>1335.78</v>
       </c>
       <c r="BV20" s="1">
-        <v>-697.394000</v>
+        <v>-697.39400000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>52555.774994</v>
+        <v>52555.774993999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>14.598826</v>
+        <v>14.598826000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.150000</v>
+        <v>1472.15</v>
       </c>
       <c r="CA20" s="1">
-        <v>-911.542000</v>
+        <v>-911.54200000000003</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>52568.669984</v>
@@ -5347,60 +5763,60 @@
         <v>14.602408</v>
       </c>
       <c r="CE20" s="1">
-        <v>1829.450000</v>
+        <v>1829.45</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1417.930000</v>
+        <v>-1417.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>52395.415957</v>
+        <v>52395.415956999997</v>
       </c>
       <c r="B21" s="1">
-        <v>14.554282</v>
+        <v>14.554282000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>897.431000</v>
+        <v>897.43100000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.117000</v>
+        <v>-198.11699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>52405.764457</v>
+        <v>52405.764456999997</v>
       </c>
       <c r="G21" s="1">
         <v>14.557157</v>
       </c>
       <c r="H21" s="1">
-        <v>915.483000</v>
+        <v>915.48299999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.628000</v>
+        <v>-167.62799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>52416.180441</v>
+        <v>52416.180440999997</v>
       </c>
       <c r="L21" s="1">
-        <v>14.560050</v>
+        <v>14.56005</v>
       </c>
       <c r="M21" s="1">
-        <v>939.380000</v>
+        <v>939.38</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.059000</v>
+        <v>-120.059</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>52426.716494</v>
@@ -5409,285 +5825,285 @@
         <v>14.562977</v>
       </c>
       <c r="R21" s="1">
-        <v>946.372000</v>
+        <v>946.37199999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.005000</v>
+        <v>-104.005</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>52437.526270</v>
+        <v>52437.526270000002</v>
       </c>
       <c r="V21" s="1">
-        <v>14.565980</v>
+        <v>14.56598</v>
       </c>
       <c r="W21" s="1">
-        <v>953.235000</v>
+        <v>953.23500000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.046500</v>
+        <v>-89.046499999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>52448.066752</v>
+        <v>52448.066751999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.568907</v>
+        <v>14.568906999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.527000</v>
+        <v>960.52700000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.363300</v>
+        <v>-77.363299999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>52458.893922</v>
+        <v>52458.893922000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>14.571915</v>
+        <v>14.571915000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.341000</v>
+        <v>965.34100000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.145900</v>
+        <v>-75.145899999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>52469.108531</v>
+        <v>52469.108530999998</v>
       </c>
       <c r="AK21" s="1">
         <v>14.574752</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.598000</v>
+        <v>972.59799999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.918100</v>
+        <v>-79.918099999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>52479.658966</v>
+        <v>52479.658966000003</v>
       </c>
       <c r="AP21" s="1">
         <v>14.577683</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.762000</v>
+        <v>980.76199999999994</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.580400</v>
+        <v>-91.580399999999997</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>52490.841271</v>
+        <v>52490.841270999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.580789</v>
+        <v>14.580788999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.693000</v>
+        <v>990.69299999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.357000</v>
+        <v>-109.357</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>52501.786952</v>
+        <v>52501.786952000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.583830</v>
+        <v>14.583830000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.022000</v>
+        <v>999.02200000000005</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.032000</v>
+        <v>-125.032</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>52512.465818</v>
+        <v>52512.465817999997</v>
       </c>
       <c r="BE21" s="1">
         <v>14.586796</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.059000</v>
+        <v>-197.059</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>52523.575708</v>
+        <v>52523.575707999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>14.589882</v>
+        <v>14.589881999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.529000</v>
+        <v>-313.529</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>52533.787881</v>
+        <v>52533.787880999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.592719</v>
+        <v>14.592719000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-496.794000</v>
+        <v>-496.79399999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>52544.781199</v>
+        <v>52544.781198999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.595773</v>
+        <v>14.595772999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.810000</v>
+        <v>1335.81</v>
       </c>
       <c r="BV21" s="1">
-        <v>-697.369000</v>
+        <v>-697.36900000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>52556.232836</v>
+        <v>52556.232836000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.598954</v>
+        <v>14.598954000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.110000</v>
+        <v>1472.11</v>
       </c>
       <c r="CA21" s="1">
-        <v>-911.388000</v>
+        <v>-911.38800000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>52569.257743</v>
+        <v>52569.257743000002</v>
       </c>
       <c r="CD21" s="1">
         <v>14.602572</v>
       </c>
       <c r="CE21" s="1">
-        <v>1829.540000</v>
+        <v>1829.54</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1418.430000</v>
+        <v>-1418.43</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>52395.696167</v>
+        <v>52395.696167000002</v>
       </c>
       <c r="B22" s="1">
-        <v>14.554360</v>
+        <v>14.554360000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>897.543000</v>
+        <v>897.54300000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.193000</v>
+        <v>-198.19300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>52406.111655</v>
+        <v>52406.111655000001</v>
       </c>
       <c r="G22" s="1">
-        <v>14.557253</v>
+        <v>14.557252999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>915.518000</v>
+        <v>915.51800000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.026000</v>
+        <v>-168.02600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>52416.529634</v>
+        <v>52416.529633999999</v>
       </c>
       <c r="L22" s="1">
-        <v>14.560147</v>
+        <v>14.560147000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.273000</v>
+        <v>939.27300000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.210000</v>
+        <v>-120.21</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>52427.066139</v>
+        <v>52427.066139000002</v>
       </c>
       <c r="Q22" s="1">
         <v>14.563074</v>
       </c>
       <c r="R22" s="1">
-        <v>946.342000</v>
+        <v>946.34199999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.968000</v>
+        <v>-103.968</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>52438.212764</v>
+        <v>52438.212764000004</v>
       </c>
       <c r="V22" s="1">
-        <v>14.566170</v>
+        <v>14.56617</v>
       </c>
       <c r="W22" s="1">
-        <v>953.272000</v>
+        <v>953.27200000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.909600</v>
+        <v>-88.909599999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>52448.762638</v>
@@ -5696,58 +6112,58 @@
         <v>14.569101</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.521000</v>
+        <v>960.52099999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.349000</v>
+        <v>-77.349000000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>52459.240379</v>
+        <v>52459.240379000003</v>
       </c>
       <c r="AF22" s="1">
         <v>14.572011</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.337000</v>
+        <v>965.33699999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.144600</v>
+        <v>-75.144599999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>52469.455942</v>
+        <v>52469.455942000001</v>
       </c>
       <c r="AK22" s="1">
         <v>14.574849</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.601000</v>
+        <v>972.601</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.932200</v>
+        <v>-79.932199999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>52480.018565</v>
+        <v>52480.018564999998</v>
       </c>
       <c r="AP22" s="1">
         <v>14.577783</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.757000</v>
+        <v>980.75699999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.569100</v>
+        <v>-91.569100000000006</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>52491.508854</v>
@@ -5756,315 +6172,315 @@
         <v>14.580975</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.717000</v>
+        <v>990.71699999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.348000</v>
+        <v>-109.348</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>52502.206568</v>
+        <v>52502.206568000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.583946</v>
+        <v>14.583945999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.049000</v>
+        <v>999.04899999999998</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.019000</v>
+        <v>-125.01900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>52512.898331</v>
+        <v>52512.898330999997</v>
       </c>
       <c r="BE22" s="1">
         <v>14.586916</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.042000</v>
+        <v>-197.042</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>52523.961596</v>
+        <v>52523.961596000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.589989</v>
+        <v>14.589988999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.250000</v>
+        <v>1105.25</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.557000</v>
+        <v>-313.55700000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>52534.187118</v>
+        <v>52534.187118000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.592830</v>
+        <v>14.592829999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-496.828000</v>
+        <v>-496.82799999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>52545.207727</v>
+        <v>52545.207727000001</v>
       </c>
       <c r="BT22" s="1">
         <v>14.595891</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.870000</v>
+        <v>1335.87</v>
       </c>
       <c r="BV22" s="1">
-        <v>-697.394000</v>
+        <v>-697.39400000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>52556.679231</v>
+        <v>52556.679231000002</v>
       </c>
       <c r="BY22" s="1">
         <v>14.599078</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.330000</v>
+        <v>1472.33</v>
       </c>
       <c r="CA22" s="1">
-        <v>-911.547000</v>
+        <v>-911.54700000000003</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>52569.738894</v>
+        <v>52569.738894000002</v>
       </c>
       <c r="CD22" s="1">
         <v>14.602705</v>
       </c>
       <c r="CE22" s="1">
-        <v>1829.500000</v>
+        <v>1829.5</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1419.300000</v>
+        <v>-1419.3</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>52396.037909</v>
+        <v>52396.037908999999</v>
       </c>
       <c r="B23" s="1">
-        <v>14.554455</v>
+        <v>14.554455000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>897.385000</v>
+        <v>897.38499999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.934000</v>
+        <v>-197.934</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>52406.453930</v>
+        <v>52406.453930000003</v>
       </c>
       <c r="G23" s="1">
-        <v>14.557348</v>
+        <v>14.557347999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>915.864000</v>
+        <v>915.86400000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.175000</v>
+        <v>-168.17500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>52417.222536</v>
+        <v>52417.222536000001</v>
       </c>
       <c r="L23" s="1">
-        <v>14.560340</v>
+        <v>14.56034</v>
       </c>
       <c r="M23" s="1">
-        <v>939.301000</v>
+        <v>939.30100000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.046000</v>
+        <v>-120.04600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>52427.763051</v>
+        <v>52427.763051000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>14.563268</v>
+        <v>14.563268000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>946.394000</v>
+        <v>946.39400000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.939000</v>
+        <v>-103.93899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>52438.554508</v>
+        <v>52438.554508000001</v>
       </c>
       <c r="V23" s="1">
         <v>14.566265</v>
       </c>
       <c r="W23" s="1">
-        <v>953.180000</v>
+        <v>953.18</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.922700</v>
+        <v>-88.922700000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>52449.111822</v>
+        <v>52449.111821999999</v>
       </c>
       <c r="AA23" s="1">
         <v>14.569198</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.568000</v>
+        <v>960.56799999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.365700</v>
+        <v>-77.365700000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>52459.581377</v>
+        <v>52459.581377000002</v>
       </c>
       <c r="AF23" s="1">
         <v>14.572106</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.331000</v>
+        <v>965.33100000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.193200</v>
+        <v>-75.193200000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>52470.121858</v>
+        <v>52470.121857999999</v>
       </c>
       <c r="AK23" s="1">
         <v>14.575034</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.624000</v>
+        <v>972.62400000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.937300</v>
+        <v>-79.937299999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>52480.687140</v>
+        <v>52480.687140000002</v>
       </c>
       <c r="AP23" s="1">
         <v>14.577969</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.762000</v>
+        <v>980.76199999999994</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.572800</v>
+        <v>-91.572800000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>52491.966693</v>
+        <v>52491.966693000002</v>
       </c>
       <c r="AU23" s="1">
         <v>14.581102</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.691000</v>
+        <v>990.69100000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.321000</v>
+        <v>-109.321</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>52502.581048</v>
       </c>
       <c r="AZ23" s="1">
-        <v>14.584050</v>
+        <v>14.58405</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.045000</v>
+        <v>999.04499999999996</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.018000</v>
+        <v>-125.018</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>52513.257934</v>
+        <v>52513.257934000001</v>
       </c>
       <c r="BE23" s="1">
         <v>14.587016</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.080000</v>
+        <v>1038.08</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.047000</v>
+        <v>-197.047</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>52524.340042</v>
+        <v>52524.340042000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.590094</v>
+        <v>14.590094000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.280000</v>
+        <v>1105.28</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.508000</v>
+        <v>-313.50799999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>52534.787804</v>
@@ -6073,347 +6489,347 @@
         <v>14.592997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-496.757000</v>
+        <v>-496.75700000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>52545.635775</v>
+        <v>52545.635775000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>14.596010</v>
+        <v>14.59601</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.970000</v>
+        <v>1335.97</v>
       </c>
       <c r="BV23" s="1">
-        <v>-697.271000</v>
+        <v>-697.27099999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>52557.137039</v>
+        <v>52557.137039000001</v>
       </c>
       <c r="BY23" s="1">
         <v>14.599205</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.300000</v>
+        <v>1472.3</v>
       </c>
       <c r="CA23" s="1">
-        <v>-911.615000</v>
+        <v>-911.61500000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>52570.270078</v>
+        <v>52570.270078000001</v>
       </c>
       <c r="CD23" s="1">
         <v>14.602853</v>
       </c>
       <c r="CE23" s="1">
-        <v>1829.350000</v>
+        <v>1829.35</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1417.920000</v>
+        <v>-1417.92</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>52396.383164</v>
+        <v>52396.383163999999</v>
       </c>
       <c r="B24" s="1">
         <v>14.554551</v>
       </c>
       <c r="C24" s="1">
-        <v>897.380000</v>
+        <v>897.38</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.147000</v>
+        <v>-198.14699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>52407.143334</v>
       </c>
       <c r="G24" s="1">
-        <v>14.557540</v>
+        <v>14.557539999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>915.793000</v>
+        <v>915.79300000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.349000</v>
+        <v>-168.34899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>52417.575191</v>
+        <v>52417.575191000004</v>
       </c>
       <c r="L24" s="1">
         <v>14.560438</v>
       </c>
       <c r="M24" s="1">
-        <v>939.379000</v>
+        <v>939.37900000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.962000</v>
+        <v>-119.962</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>52428.111210</v>
+        <v>52428.111210000003</v>
       </c>
       <c r="Q24" s="1">
         <v>14.563364</v>
       </c>
       <c r="R24" s="1">
-        <v>946.405000</v>
+        <v>946.40499999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.992000</v>
+        <v>-103.992</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>52438.897707</v>
+        <v>52438.897706999996</v>
       </c>
       <c r="V24" s="1">
-        <v>14.566360</v>
+        <v>14.56636</v>
       </c>
       <c r="W24" s="1">
-        <v>953.160000</v>
+        <v>953.16</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.026700</v>
+        <v>-89.026700000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>52449.768525</v>
+        <v>52449.768524999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.569380</v>
+        <v>14.569380000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.577000</v>
+        <v>960.577</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.373300</v>
+        <v>-77.3733</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>52460.234111</v>
+        <v>52460.234110999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.572287</v>
+        <v>14.572286999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.329000</v>
+        <v>965.32899999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.127200</v>
+        <v>-75.127200000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>52470.501795</v>
+        <v>52470.501794999996</v>
       </c>
       <c r="AK24" s="1">
         <v>14.575139</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.598000</v>
+        <v>972.59799999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.923800</v>
+        <v>-79.9238</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>52481.133043</v>
+        <v>52481.133043000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.578093</v>
+        <v>14.578093000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.734000</v>
+        <v>980.73400000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.589800</v>
+        <v>-91.589799999999997</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>52492.330229</v>
+        <v>52492.330228999999</v>
       </c>
       <c r="AU24" s="1">
         <v>14.581203</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.702000</v>
+        <v>990.702</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.350000</v>
+        <v>-109.35</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>52502.961976</v>
+        <v>52502.961975999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.584156</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.029000</v>
+        <v>999.029</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.056000</v>
+        <v>-125.056</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>52513.617530</v>
+        <v>52513.617530000003</v>
       </c>
       <c r="BE24" s="1">
         <v>14.587116</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.053000</v>
+        <v>-197.053</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>52524.763167</v>
+        <v>52524.763166999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.590212</v>
+        <v>14.590211999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.561000</v>
+        <v>-313.56099999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>52535.002076</v>
+        <v>52535.002075999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.593056</v>
+        <v>14.593056000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-496.804000</v>
+        <v>-496.80399999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>52546.049935</v>
+        <v>52546.049935000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>14.596125</v>
+        <v>14.596125000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1335.940000</v>
+        <v>1335.94</v>
       </c>
       <c r="BV24" s="1">
-        <v>-697.373000</v>
+        <v>-697.37300000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>52557.585392</v>
+        <v>52557.585392000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>14.599329</v>
+        <v>14.599329000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="CA24" s="1">
-        <v>-911.411000</v>
+        <v>-911.41099999999994</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>52570.786414</v>
+        <v>52570.786414000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.602996</v>
+        <v>14.602995999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.100000</v>
+        <v>1828.1</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1418.240000</v>
+        <v>-1418.24</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>52397.122703</v>
+        <v>52397.122703000001</v>
       </c>
       <c r="B25" s="1">
-        <v>14.554756</v>
+        <v>14.554755999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>897.602000</v>
+        <v>897.60199999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.014000</v>
+        <v>-198.01400000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>52407.487061</v>
       </c>
       <c r="G25" s="1">
-        <v>14.557635</v>
+        <v>14.557634999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>915.681000</v>
+        <v>915.68100000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.883000</v>
+        <v>-167.88300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>52417.915944</v>
@@ -6422,482 +6838,483 @@
         <v>14.560532</v>
       </c>
       <c r="M25" s="1">
-        <v>939.317000</v>
+        <v>939.31700000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.198000</v>
+        <v>-120.19799999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>52428.460393</v>
+        <v>52428.460393000001</v>
       </c>
       <c r="Q25" s="1">
         <v>14.563461</v>
       </c>
       <c r="R25" s="1">
-        <v>946.396000</v>
+        <v>946.39599999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.001000</v>
+        <v>-104.001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>52439.560891</v>
+        <v>52439.560891000001</v>
       </c>
       <c r="V25" s="1">
         <v>14.566545</v>
       </c>
       <c r="W25" s="1">
-        <v>953.263000</v>
+        <v>953.26300000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.925000</v>
+        <v>-88.924999999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>52450.154909</v>
+        <v>52450.154908999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>14.569487</v>
+        <v>14.569487000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.527000</v>
+        <v>960.52700000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.386800</v>
+        <v>-77.386799999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>52460.610575</v>
+        <v>52460.610574999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.572392</v>
+        <v>14.572392000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.302000</v>
+        <v>965.30200000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.201100</v>
+        <v>-75.201099999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>52470.849522</v>
+        <v>52470.849521999997</v>
       </c>
       <c r="AK25" s="1">
         <v>14.575236</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.606000</v>
+        <v>972.60599999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.915800</v>
+        <v>-79.915800000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>52481.492185</v>
+        <v>52481.492185000003</v>
       </c>
       <c r="AP25" s="1">
         <v>14.578192</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.754000</v>
+        <v>980.75400000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.585100</v>
+        <v>-91.585099999999997</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>52492.696308</v>
+        <v>52492.696307999999</v>
       </c>
       <c r="AU25" s="1">
         <v>14.581305</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.694000</v>
+        <v>990.69399999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.334000</v>
+        <v>-109.334</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>52503.378615</v>
+        <v>52503.378615000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.584272</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.035000</v>
+        <v>999.03499999999997</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.041000</v>
+        <v>-125.041</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>52514.039128</v>
+        <v>52514.039127999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.587233</v>
+        <v>14.587232999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.037000</v>
+        <v>-197.03700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>52525.087017</v>
+        <v>52525.087016999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>14.590302</v>
+        <v>14.590301999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.523000</v>
+        <v>-313.52300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>52535.402844</v>
+        <v>52535.402843999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>14.593167</v>
+        <v>14.593166999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-496.791000</v>
+        <v>-496.791</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>52546.481963</v>
+        <v>52546.481962999998</v>
       </c>
       <c r="BT25" s="1">
         <v>14.596245</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.970000</v>
+        <v>1335.97</v>
       </c>
       <c r="BV25" s="1">
-        <v>-697.326000</v>
+        <v>-697.32600000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>52558.043695</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.599457</v>
+        <v>14.599456999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="CA25" s="1">
-        <v>-911.508000</v>
+        <v>-911.50800000000004</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>52571.304732</v>
+        <v>52571.304731999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.603140</v>
+        <v>14.60314</v>
       </c>
       <c r="CE25" s="1">
-        <v>1828.710000</v>
+        <v>1828.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1419.360000</v>
+        <v>-1419.36</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>52397.434184</v>
+        <v>52397.434183999998</v>
       </c>
       <c r="B26" s="1">
         <v>14.554843</v>
       </c>
       <c r="C26" s="1">
-        <v>897.340000</v>
+        <v>897.34</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.031000</v>
+        <v>-198.03100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>52407.831780</v>
+        <v>52407.83178</v>
       </c>
       <c r="G26" s="1">
         <v>14.557731</v>
       </c>
       <c r="H26" s="1">
-        <v>915.084000</v>
+        <v>915.08399999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.946000</v>
+        <v>-167.946</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>52418.579129</v>
+        <v>52418.579128999998</v>
       </c>
       <c r="L26" s="1">
-        <v>14.560716</v>
+        <v>14.560715999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>939.394000</v>
+        <v>939.39400000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.950000</v>
+        <v>-119.95</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>52429.114618</v>
       </c>
       <c r="Q26" s="1">
-        <v>14.563643</v>
+        <v>14.563643000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>946.361000</v>
+        <v>946.36099999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.013000</v>
+        <v>-104.01300000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>52439.929883</v>
+        <v>52439.929882999997</v>
       </c>
       <c r="V26" s="1">
         <v>14.566647</v>
       </c>
       <c r="W26" s="1">
-        <v>953.139000</v>
+        <v>953.13900000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.922700</v>
+        <v>-88.922700000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>52450.506572</v>
+        <v>52450.506571999998</v>
       </c>
       <c r="AA26" s="1">
         <v>14.569585</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.598000</v>
+        <v>960.59799999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.338100</v>
+        <v>-77.338099999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>52460.956782</v>
+        <v>52460.956782000001</v>
       </c>
       <c r="AF26" s="1">
         <v>14.572488</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.321000</v>
+        <v>965.32100000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.192500</v>
+        <v>-75.192499999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>52471.198674</v>
+        <v>52471.198673999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.575333</v>
+        <v>14.575333000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.598000</v>
+        <v>972.59799999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.929700</v>
+        <v>-79.929699999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>52481.852739</v>
+        <v>52481.852739000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>14.578292</v>
+        <v>14.578291999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.768000</v>
+        <v>980.76800000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.592100</v>
+        <v>-91.592100000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>52493.108981</v>
+        <v>52493.108980999998</v>
       </c>
       <c r="AU26" s="1">
         <v>14.581419</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.696000</v>
+        <v>990.69600000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.333000</v>
+        <v>-109.333</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>52503.677703</v>
+        <v>52503.677703000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.584355</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.043000</v>
+        <v>999.04300000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.024000</v>
+        <v>-125.024</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>52514.342712</v>
+        <v>52514.342711999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>14.587317</v>
+        <v>14.587317000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.050000</v>
+        <v>-197.05</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>52525.475386</v>
+        <v>52525.475385999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.590410</v>
+        <v>14.59041</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.260000</v>
+        <v>1105.26</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.586000</v>
+        <v>-313.58600000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>52535.819949</v>
+        <v>52535.819948999997</v>
       </c>
       <c r="BO26" s="1">
         <v>14.593283</v>
       </c>
       <c r="BP26" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-496.779000</v>
+        <v>-496.779</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>52546.891186</v>
+        <v>52546.891186000001</v>
       </c>
       <c r="BT26" s="1">
         <v>14.596359</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.040000</v>
+        <v>1336.04</v>
       </c>
       <c r="BV26" s="1">
-        <v>-697.373000</v>
+        <v>-697.37300000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>52558.490125</v>
+        <v>52558.490124999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.599581</v>
+        <v>14.599581000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="CA26" s="1">
-        <v>-911.527000</v>
+        <v>-911.52700000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>52571.825068</v>
+        <v>52571.825067999998</v>
       </c>
       <c r="CD26" s="1">
         <v>14.603285</v>
       </c>
       <c r="CE26" s="1">
-        <v>1828.530000</v>
+        <v>1828.53</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1419.260000</v>
+        <v>-1419.26</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>